--- a/municipal/ENG/Demography/Suicide rate/Chiatura.xlsx
+++ b/municipal/ENG/Demography/Suicide rate/Chiatura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\12 - ცხრილები და რელიზები\მუნიციპალური სტატისტიკა (რუკა)\ინგლისური\cx 33 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\-Suicide rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6298E80B-76E9-49AF-B23E-B61C37460DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8F5011-DD21-4AFF-BC3A-246188C2FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="330" windowWidth="12840" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="2730" windowWidth="27045" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,9 +199,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -225,6 +222,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -508,42 +514,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="14" customWidth="1"/>
-    <col min="3" max="44" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="13.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="13" customWidth="1"/>
+    <col min="3" max="44" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -603,26 +609,45 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>2021</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
     </row>
